--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/56/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/56/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2792792792792793</v>
+        <v>0.8846884688468847</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1865.865865865866</v>
+        <v>635.4735473547355</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08878878878878879</v>
+        <v>0.05615561556155615</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3483483483483483</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4084084084084</v>
+        <v>1337.213721372137</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.6766766766767</v>
+        <v>229.3429342934294</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>144.1441441441441</v>
+        <v>794.3852385238523</v>
       </c>
     </row>
   </sheetData>
